--- a/data/trans_orig/P56$nadie-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56$nadie-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD51E448-A09C-450C-811B-9B9E4A3F9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92FE740-9F66-427E-9DB7-724F7A5C13EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{252E5628-FEBA-4AF6-B441-113BF7C29485}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{768C0F36-A2C2-4FE0-97BB-8E1355AA63B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="782">
-  <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="780">
+  <si>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -581,7 +581,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2012</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>3,01%</t>
@@ -1103,7 +1103,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2016</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>3,07%</t>
@@ -1661,703 +1661,703 @@
     <t>4,49%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2023</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -2366,25 +2366,19 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>1,81%</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C798727-112B-4AA1-9584-BE8AC66542C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A011E79-C174-49FD-A8E6-7ACC9D59189F}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4225,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E273C935-4539-4802-809E-409039A915F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103E4F87-622E-4FAF-8A4D-D294E088575F}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C183E-BE93-48AA-845A-2D03D6026050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8EDEB9-8E37-4524-AE99-8CF105FB6F3F}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7083,7 +7077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4085A0B0-2C69-47E4-9B07-0EF477AD7E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B8A0E1-AA08-4A3E-8735-D66DF19ECEF4}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7174,19 +7168,19 @@
         <v>541</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>542</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>543</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>544</v>
+        <v>155</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>545</v>
@@ -7204,31 +7198,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>555</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7243,25 +7237,25 @@
         <v>557</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7270,31 +7264,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7303,31 +7297,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7336,31 +7330,31 @@
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7369,31 +7363,31 @@
         <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7402,22 +7396,22 @@
         <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>353</v>
@@ -7426,7 +7420,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7441,7 +7435,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>53</v>
@@ -7474,25 +7468,25 @@
         <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>605</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>607</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7503,31 +7497,31 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>614</v>
+        <v>510</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>527</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7536,31 +7530,31 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -7569,31 +7563,31 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>632</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7602,31 +7596,31 @@
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7635,31 +7629,31 @@
         <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>402</v>
+        <v>635</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>646</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>649</v>
+        <v>352</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>650</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7668,31 +7662,31 @@
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>643</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>11</v>
+        <v>645</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>646</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>485</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7701,31 +7695,31 @@
         <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>662</v>
+        <v>455</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -7734,31 +7728,31 @@
         <v>76</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7773,7 +7767,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>53</v>
@@ -7782,7 +7776,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>671</v>
+        <v>574</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>53</v>
@@ -7800,31 +7794,31 @@
         <v>80</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>235</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -7835,31 +7829,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>670</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>679</v>
+        <v>573</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7868,31 +7862,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7901,31 +7895,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>695</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7934,31 +7928,31 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>144</v>
+        <v>689</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7967,31 +7961,31 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>336</v>
+        <v>698</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8000,31 +7994,31 @@
         <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>712</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>533</v>
+        <v>705</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>715</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8042,22 +8036,22 @@
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8081,7 +8075,7 @@
         <v>69</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>53</v>
@@ -8090,7 +8084,7 @@
         <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8114,7 +8108,7 @@
         <v>69</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>53</v>
@@ -8123,7 +8117,7 @@
         <v>69</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8147,7 +8141,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>53</v>
@@ -8156,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8167,31 +8161,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>182</v>
+        <v>714</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>716</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8200,31 +8194,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>730</v>
+        <v>193</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>723</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>733</v>
+        <v>486</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>442</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8233,31 +8227,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8266,31 +8260,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8299,31 +8293,31 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8332,31 +8326,31 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>233</v>
+        <v>752</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8365,28 +8359,28 @@
         <v>68</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>768</v>
@@ -8404,16 +8398,16 @@
         <v>53</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>55</v>
+        <v>770</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>422</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>771</v>
+        <v>598</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>772</v>
@@ -8422,7 +8416,7 @@
         <v>773</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>415</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8470,25 +8464,25 @@
         <v>53</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
